--- a/natmiOut/OldD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.02296290371207</v>
+        <v>6.631631</v>
       </c>
       <c r="H2">
-        <v>4.02296290371207</v>
+        <v>19.894893</v>
       </c>
       <c r="I2">
-        <v>0.07597239693726331</v>
+        <v>0.1124375847246059</v>
       </c>
       <c r="J2">
-        <v>0.07597239693726331</v>
+        <v>0.1124375847246059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.00067406894824</v>
+        <v>1.210317333333333</v>
       </c>
       <c r="N2">
-        <v>1.00067406894824</v>
+        <v>3.630952</v>
       </c>
       <c r="O2">
-        <v>0.5337044568394373</v>
+        <v>0.3862382071332151</v>
       </c>
       <c r="P2">
-        <v>0.5337044568394373</v>
+        <v>0.3862382071332151</v>
       </c>
       <c r="Q2">
-        <v>4.025674658085384</v>
+        <v>8.026377947570666</v>
       </c>
       <c r="R2">
-        <v>4.025674658085384</v>
+        <v>72.23740152813599</v>
       </c>
       <c r="S2">
-        <v>0.04054680684219224</v>
+        <v>0.04342769113842077</v>
       </c>
       <c r="T2">
-        <v>0.04054680684219224</v>
+        <v>0.04342769113842076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.02296290371207</v>
+        <v>6.631631</v>
       </c>
       <c r="H3">
-        <v>4.02296290371207</v>
+        <v>19.894893</v>
       </c>
       <c r="I3">
-        <v>0.07597239693726331</v>
+        <v>0.1124375847246059</v>
       </c>
       <c r="J3">
-        <v>0.07597239693726331</v>
+        <v>0.1124375847246059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.874285107660788</v>
+        <v>1.044289666666667</v>
       </c>
       <c r="N3">
-        <v>0.874285107660788</v>
+        <v>3.132869</v>
       </c>
       <c r="O3">
-        <v>0.4662955431605627</v>
+        <v>0.3332552194970434</v>
       </c>
       <c r="P3">
-        <v>0.4662955431605627</v>
+        <v>0.3332552194970434</v>
       </c>
       <c r="Q3">
-        <v>3.517216555387264</v>
+        <v>6.925343726446334</v>
       </c>
       <c r="R3">
-        <v>3.517216555387264</v>
+        <v>62.32809353801701</v>
       </c>
       <c r="S3">
-        <v>0.03542559009507106</v>
+        <v>0.03747041197711596</v>
       </c>
       <c r="T3">
-        <v>0.03542559009507106</v>
+        <v>0.03747041197711596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2021465071024</v>
+        <v>6.631631</v>
       </c>
       <c r="H4">
-        <v>16.2021465071024</v>
+        <v>19.894893</v>
       </c>
       <c r="I4">
-        <v>0.3059724723132511</v>
+        <v>0.1124375847246059</v>
       </c>
       <c r="J4">
-        <v>0.3059724723132511</v>
+        <v>0.1124375847246059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00067406894824</v>
+        <v>0.8789963333333333</v>
       </c>
       <c r="N4">
-        <v>1.00067406894824</v>
+        <v>2.636989</v>
       </c>
       <c r="O4">
-        <v>0.5337044568394373</v>
+        <v>0.2805065733697416</v>
       </c>
       <c r="P4">
-        <v>0.5337044568394373</v>
+        <v>0.2805065733697416</v>
       </c>
       <c r="Q4">
-        <v>16.21306787095767</v>
+        <v>5.829179333019666</v>
       </c>
       <c r="R4">
-        <v>16.21306787095767</v>
+        <v>52.46261399717699</v>
       </c>
       <c r="S4">
-        <v>0.1632988721437635</v>
+        <v>0.03153948160906921</v>
       </c>
       <c r="T4">
-        <v>0.1632988721437635</v>
+        <v>0.0315394816090692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2021465071024</v>
+        <v>19.51883666666667</v>
       </c>
       <c r="H5">
-        <v>16.2021465071024</v>
+        <v>58.55651</v>
       </c>
       <c r="I5">
-        <v>0.3059724723132511</v>
+        <v>0.3309368165137774</v>
       </c>
       <c r="J5">
-        <v>0.3059724723132511</v>
+        <v>0.3309368165137774</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.874285107660788</v>
+        <v>1.210317333333333</v>
       </c>
       <c r="N5">
-        <v>0.874285107660788</v>
+        <v>3.630952</v>
       </c>
       <c r="O5">
-        <v>0.4662955431605627</v>
+        <v>0.3862382071332151</v>
       </c>
       <c r="P5">
-        <v>0.4662955431605627</v>
+        <v>0.3862382071332151</v>
       </c>
       <c r="Q5">
-        <v>14.16529540329788</v>
+        <v>23.62398634416889</v>
       </c>
       <c r="R5">
-        <v>14.16529540329788</v>
+        <v>212.61587709752</v>
       </c>
       <c r="S5">
-        <v>0.1426736001694876</v>
+        <v>0.1278204426846552</v>
       </c>
       <c r="T5">
-        <v>0.1426736001694876</v>
+        <v>0.1278204426846551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.7278454240075</v>
+        <v>19.51883666666667</v>
       </c>
       <c r="H6">
-        <v>32.7278454240075</v>
+        <v>58.55651</v>
       </c>
       <c r="I6">
-        <v>0.6180551307494856</v>
+        <v>0.3309368165137774</v>
       </c>
       <c r="J6">
-        <v>0.6180551307494856</v>
+        <v>0.3309368165137774</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.00067406894824</v>
+        <v>1.044289666666667</v>
       </c>
       <c r="N6">
-        <v>1.00067406894824</v>
+        <v>3.132869</v>
       </c>
       <c r="O6">
-        <v>0.5337044568394373</v>
+        <v>0.3332552194970434</v>
       </c>
       <c r="P6">
-        <v>0.5337044568394373</v>
+        <v>0.3332552194970434</v>
       </c>
       <c r="Q6">
-        <v>32.74990624835062</v>
+        <v>20.38331943635445</v>
       </c>
       <c r="R6">
-        <v>32.74990624835062</v>
+        <v>183.44987492719</v>
       </c>
       <c r="S6">
-        <v>0.3298587778534817</v>
+        <v>0.1102864214269517</v>
       </c>
       <c r="T6">
-        <v>0.3298587778534817</v>
+        <v>0.1102864214269517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.7278454240075</v>
+        <v>19.51883666666667</v>
       </c>
       <c r="H7">
-        <v>32.7278454240075</v>
+        <v>58.55651</v>
       </c>
       <c r="I7">
-        <v>0.6180551307494856</v>
+        <v>0.3309368165137774</v>
       </c>
       <c r="J7">
-        <v>0.6180551307494856</v>
+        <v>0.3309368165137774</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.874285107660788</v>
+        <v>0.8789963333333333</v>
       </c>
       <c r="N7">
-        <v>0.874285107660788</v>
+        <v>2.636989</v>
       </c>
       <c r="O7">
-        <v>0.4662955431605627</v>
+        <v>0.2805065733697416</v>
       </c>
       <c r="P7">
-        <v>0.4662955431605627</v>
+        <v>0.2805065733697416</v>
       </c>
       <c r="Q7">
-        <v>28.61346786003402</v>
+        <v>17.15698586093222</v>
       </c>
       <c r="R7">
-        <v>28.61346786003402</v>
+        <v>154.41287274839</v>
       </c>
       <c r="S7">
-        <v>0.2881963528960039</v>
+        <v>0.09282995240217061</v>
       </c>
       <c r="T7">
-        <v>0.2881963528960039</v>
+        <v>0.0928299524021706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>32.830086</v>
+      </c>
+      <c r="H8">
+        <v>98.490258</v>
+      </c>
+      <c r="I8">
+        <v>0.5566255987616168</v>
+      </c>
+      <c r="J8">
+        <v>0.5566255987616167</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.210317333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.630952</v>
+      </c>
+      <c r="O8">
+        <v>0.3862382071332151</v>
+      </c>
+      <c r="P8">
+        <v>0.3862382071332151</v>
+      </c>
+      <c r="Q8">
+        <v>39.734822140624</v>
+      </c>
+      <c r="R8">
+        <v>357.613399265616</v>
+      </c>
+      <c r="S8">
+        <v>0.2149900733101392</v>
+      </c>
+      <c r="T8">
+        <v>0.2149900733101392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.830086</v>
+      </c>
+      <c r="H9">
+        <v>98.490258</v>
+      </c>
+      <c r="I9">
+        <v>0.5566255987616168</v>
+      </c>
+      <c r="J9">
+        <v>0.5566255987616167</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.044289666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.132869</v>
+      </c>
+      <c r="O9">
+        <v>0.3332552194970434</v>
+      </c>
+      <c r="P9">
+        <v>0.3332552194970434</v>
+      </c>
+      <c r="Q9">
+        <v>34.284119565578</v>
+      </c>
+      <c r="R9">
+        <v>308.557076090202</v>
+      </c>
+      <c r="S9">
+        <v>0.1854983860929758</v>
+      </c>
+      <c r="T9">
+        <v>0.1854983860929758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>32.830086</v>
+      </c>
+      <c r="H10">
+        <v>98.490258</v>
+      </c>
+      <c r="I10">
+        <v>0.5566255987616168</v>
+      </c>
+      <c r="J10">
+        <v>0.5566255987616167</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8789963333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.636989</v>
+      </c>
+      <c r="O10">
+        <v>0.2805065733697416</v>
+      </c>
+      <c r="P10">
+        <v>0.2805065733697416</v>
+      </c>
+      <c r="Q10">
+        <v>28.857525217018</v>
+      </c>
+      <c r="R10">
+        <v>259.717726953162</v>
+      </c>
+      <c r="S10">
+        <v>0.1561371393585018</v>
+      </c>
+      <c r="T10">
+        <v>0.1561371393585017</v>
       </c>
     </row>
   </sheetData>
